--- a/Humanity_testing_Dimitrije_Scekic.xlsx
+++ b/Humanity_testing_Dimitrije_Scekic.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Pass</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>HUMANITY TESTING</t>
+  </si>
+  <si>
+    <t>As expected</t>
   </si>
 </sst>
 </file>
@@ -456,12 +459,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,62 +472,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -538,12 +487,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,8 +523,71 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,21 +893,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="48.140625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="21.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="46"/>
-    <col min="11" max="11" width="35.7109375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="26"/>
+    <col min="11" max="11" width="35.7109375" style="27" customWidth="1"/>
     <col min="257" max="257" width="18" customWidth="1"/>
     <col min="258" max="259" width="20.7109375" customWidth="1"/>
     <col min="260" max="260" width="48.140625" customWidth="1"/>
@@ -1345,388 +1351,409 @@
     <col min="16139" max="16139" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="22"/>
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="26" customFormat="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+    <row r="5" spans="1:12" s="10" customFormat="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" s="29" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="32" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="29" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="32" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="29" customFormat="1" ht="79.5" customHeight="1" outlineLevel="1">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="79.5" customHeight="1" outlineLevel="1">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="32" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="29" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="81.75" customHeight="1" outlineLevel="1">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="32" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="29" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:12" s="11" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="32" t="s">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="29" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:12" s="11" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="32" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="29" customFormat="1" ht="79.5" customHeight="1" outlineLevel="1">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:12" s="11" customFormat="1" ht="79.5" customHeight="1" outlineLevel="1">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="32" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="29" customFormat="1" ht="79.5" customHeight="1" outlineLevel="1">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:12" s="11" customFormat="1" ht="79.5" customHeight="1" outlineLevel="1">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="32" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="29" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="106.5" customHeight="1" outlineLevel="1">
+      <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="32" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="29" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" s="44" customFormat="1" ht="51.75" customHeight="1" outlineLevel="1">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:11" s="24" customFormat="1" ht="51.75" customHeight="1" outlineLevel="1">
+      <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="J17" s="41" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="I17" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1770,6 +1797,13 @@
     <row r="55" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="A1:A2"/>
@@ -1786,13 +1820,6 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
